--- a/aggregated_single_ext/results.xlsx
+++ b/aggregated_single_ext/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,89 +468,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bs1</t>
+          <t>bs_auto1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13450012.176672</v>
+        <v>41834364.20349601</v>
       </c>
       <c r="C2" t="n">
-        <v>528476.166903</v>
+        <v>1627522.883479001</v>
       </c>
       <c r="D2" t="n">
-        <v>255528.057</v>
+        <v>924604.9999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3183</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bs2</t>
+          <t>bs_auto2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10474612.698324</v>
+        <v>640861.9476029999</v>
       </c>
       <c r="C3" t="n">
-        <v>331709.3332009999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>837862.9005</v>
+        <v>213620.649201</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2449</v>
+        <v>964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bs3</t>
+          <t>bs_auto3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37785138.952608</v>
+        <v>657615101.5700002</v>
       </c>
       <c r="C4" t="n">
-        <v>1542528.106817</v>
+        <v>750500</v>
       </c>
       <c r="D4" t="n">
-        <v>254821.463</v>
+        <v>106515</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>127856.711314</v>
       </c>
       <c r="F4" t="n">
-        <v>3103</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bs4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1898131.15</v>
-      </c>
-      <c r="C5" t="n">
-        <v>500</v>
-      </c>
-      <c r="D5" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" t="n">
-        <v>377.18123</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+        <v>1501</v>
       </c>
     </row>
   </sheetData>

--- a/aggregated_single_ext/results.xlsx
+++ b/aggregated_single_ext/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41834364.20349601</v>
+        <v>37916791.11931966</v>
       </c>
       <c r="C2" t="n">
-        <v>1627522.883479001</v>
+        <v>1548229.129718562</v>
       </c>
       <c r="D2" t="n">
-        <v>924604.9999999999</v>
+        <v>253097.3353580562</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6271</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>640861.9476029999</v>
+        <v>10590559.69740001</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>336490.8207250003</v>
       </c>
       <c r="D3" t="n">
-        <v>213620.649201</v>
+        <v>838259.9999999999</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>964</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,107 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>657615101.5700002</v>
+        <v>13152690.13030486</v>
       </c>
       <c r="C4" t="n">
-        <v>750500</v>
+        <v>516178.7371696043</v>
       </c>
       <c r="D4" t="n">
-        <v>106515</v>
+        <v>254800.14607812</v>
       </c>
       <c r="E4" t="n">
-        <v>127856.711314</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1501</v>
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bs_auto4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5054.467967999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>188.727832</v>
+      </c>
+      <c r="D5" t="n">
+        <v>175</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bs_auto5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1542.594168000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.77475700000002</v>
+      </c>
+      <c r="D6" t="n">
+        <v>420</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bs_auto6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>740.387379</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>246.795793</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bs_auto7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3759.914568</v>
+      </c>
+      <c r="C8" t="n">
+        <v>151.663107</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/aggregated_single_ext/results.xlsx
+++ b/aggregated_single_ext/results.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37916791.11931966</v>
+        <v>37916791.11931965</v>
       </c>
       <c r="C2" t="n">
-        <v>1548229.129718562</v>
+        <v>1548229.129718561</v>
       </c>
       <c r="D2" t="n">
-        <v>253097.3353580562</v>
+        <v>253097.3353580564</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10590559.69740001</v>
+        <v>10590559.69740003</v>
       </c>
       <c r="C3" t="n">
-        <v>336490.8207250003</v>
+        <v>336490.8207250013</v>
       </c>
       <c r="D3" t="n">
-        <v>838259.9999999999</v>
+        <v>838260.0000000002</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13152690.13030486</v>
+        <v>13152690.13030485</v>
       </c>
       <c r="C4" t="n">
-        <v>516178.7371696043</v>
+        <v>516178.7371696039</v>
       </c>
       <c r="D4" t="n">
         <v>254800.14607812</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5054.467967999999</v>
+        <v>5054.467968</v>
       </c>
       <c r="C5" t="n">
         <v>188.727832</v>
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1542.594168000001</v>
+        <v>1542.594168</v>
       </c>
       <c r="C6" t="n">
-        <v>11.77475700000002</v>
+        <v>11.774757</v>
       </c>
       <c r="D6" t="n">
         <v>420</v>

--- a/aggregated_single_ext/results.xlsx
+++ b/aggregated_single_ext/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37916791.11931965</v>
+        <v>41834364.20349601</v>
       </c>
       <c r="C2" t="n">
-        <v>1548229.129718561</v>
+        <v>1627522.883479001</v>
       </c>
       <c r="D2" t="n">
-        <v>253097.3353580564</v>
+        <v>924604.9999999969</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3121</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10590559.69740003</v>
+        <v>640861.9476030008</v>
       </c>
       <c r="C3" t="n">
-        <v>336490.8207250013</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>838260.0000000002</v>
+        <v>213620.6492010003</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2455</v>
+        <v>964</v>
       </c>
     </row>
     <row r="4">
@@ -516,107 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13152690.13030485</v>
+        <v>657615101.5700005</v>
       </c>
       <c r="C4" t="n">
-        <v>516178.7371696039</v>
+        <v>750500</v>
       </c>
       <c r="D4" t="n">
-        <v>254800.14607812</v>
+        <v>106515</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>127856.7113140001</v>
       </c>
       <c r="F4" t="n">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bs_auto4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5054.467968</v>
-      </c>
-      <c r="C5" t="n">
-        <v>188.727832</v>
-      </c>
-      <c r="D5" t="n">
-        <v>175</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bs_auto5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1542.594168</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.774757</v>
-      </c>
-      <c r="D6" t="n">
-        <v>420</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bs_auto6</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>740.387379</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>246.795793</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>bs_auto7</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3759.914568</v>
-      </c>
-      <c r="C8" t="n">
-        <v>151.663107</v>
-      </c>
-      <c r="D8" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+        <v>1501</v>
       </c>
     </row>
   </sheetData>

--- a/aggregated_single_ext/results.xlsx
+++ b/aggregated_single_ext/results.xlsx
@@ -478,7 +478,7 @@
         <v>1627522.883479001</v>
       </c>
       <c r="D2" t="n">
-        <v>924604.9999999969</v>
+        <v>924604.9999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>640861.9476030008</v>
+        <v>640861.9476029999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>213620.6492010003</v>
+        <v>213620.649201</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>657615101.5700005</v>
+        <v>657615101.5700002</v>
       </c>
       <c r="C4" t="n">
         <v>750500</v>
@@ -525,7 +525,7 @@
         <v>106515</v>
       </c>
       <c r="E4" t="n">
-        <v>127856.7113140001</v>
+        <v>127856.711314</v>
       </c>
       <c r="F4" t="n">
         <v>1501</v>
